--- a/Excel/ConsumablesConfig.xlsx
+++ b/Excel/ConsumablesConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -25,18 +25,27 @@
     <t>描述</t>
   </si>
   <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Desc</t>
   </si>
   <si>
+    <t>CoolTime</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>Red Potion 2</t>
   </si>
   <si>
@@ -55,10 +64,10 @@
     <t>actor_skill_400301</t>
   </si>
   <si>
+    <t>actor_skill_100201</t>
+  </si>
+  <si>
     <t>actor_skill_101902</t>
-  </si>
-  <si>
-    <t>actor_skill_100201</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1063,7 @@
   <dimension ref="C3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1073,94 +1082,124 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" ht="16.2" spans="3:6">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="16.2" spans="3:6">
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" ht="15.6" spans="3:4">
+    <row r="6" ht="15.6" spans="3:6">
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="3:4">
+    <row r="7" ht="15.6" spans="3:6">
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="3:4">
+    <row r="8" ht="15.6" spans="3:6">
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:4">
+    <row r="9" ht="15.6" spans="3:6">
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="3:4">
+    <row r="10" ht="15.6" spans="3:6">
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="3:4">
+    <row r="11" ht="15.6" spans="3:6">
       <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="3:4">
+    <row r="12" ht="15.6" spans="3:6">
       <c r="C12" s="2">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="3:4">
+    <row r="13" ht="15.6" spans="3:6">
       <c r="C13" s="2">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
